--- a/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-with-referred-types.xlsx
+++ b/server-application-server/sourceTest/java/ch/ethz/sis/openbis/generic/server/xls/export/resources/export-sample-with-referred-types.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="83">
   <si>
     <t xml:space="preserve">SAMPLE_TYPE</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve">Ontology Version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type Group</t>
   </si>
   <si>
     <t xml:space="preserve">STORAGE</t>
@@ -282,6 +285,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -391,17 +395,17 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+      <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.76953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.78515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -435,27 +439,30 @@
       <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
@@ -469,46 +476,46 @@
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>9</v>
@@ -522,42 +529,42 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -565,42 +572,42 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -611,7 +618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -645,27 +652,30 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="L9" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -679,46 +689,46 @@
         <v>2</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>9</v>
@@ -732,42 +742,42 @@
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -775,322 +785,322 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L23" s="1" t="s">
         <v>8</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G25" s="1"/>
       <c r="H25" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
